--- a/medicine/Maladies infectieuses/Virus_des_bayous/Virus_des_bayous.xlsx
+++ b/medicine/Maladies infectieuses/Virus_des_bayous/Virus_des_bayous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bayou orthohantavirus (BAYV), ou virus des bayous, est une espèce de virus à ARN monocaténaire à sens négatif du genre Orthohantavirus dans l'ordre des Bunyavirales.
-Il a été identifié pour la première fois en 1993 en Louisiane[4],[5],[6]. En 1996, le rat du riz des marais a été identifié comme le réservoir naturel du virus[7], indiquant que ce virus était répandu dans tout le sud-est des États-Unis[8].
-Le virus des bayous provoque chez l'humain le syndrome pulmonaire à hantavirus (SPH) et est le deuxième hantavirus le plus répandu aux États-Unis derrière le virus Sin Nombre[9].
+Il a été identifié pour la première fois en 1993 en Louisiane. En 1996, le rat du riz des marais a été identifié comme le réservoir naturel du virus, indiquant que ce virus était répandu dans tout le sud-est des États-Unis.
+Le virus des bayous provoque chez l'humain le syndrome pulmonaire à hantavirus (SPH) et est le deuxième hantavirus le plus répandu aux États-Unis derrière le virus Sin Nombre.
 </t>
         </is>
       </c>
